--- a/data/trans_orig/P13_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>36926</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26179</v>
+        <v>27251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50206</v>
+        <v>51747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06321443285251405</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04481708921086625</v>
+        <v>0.04665107873415103</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08594792566939635</v>
+        <v>0.0885865539844803</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -765,19 +765,19 @@
         <v>69853</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54223</v>
+        <v>54865</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86777</v>
+        <v>86797</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0757355466104908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05878906134281717</v>
+        <v>0.05948530309276631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09408377661909788</v>
+        <v>0.09410577633759575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -786,19 +786,19 @@
         <v>106780</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88533</v>
+        <v>86566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129695</v>
+        <v>128888</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07088043567874097</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05876865639788471</v>
+        <v>0.05746296704110206</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08609170403121841</v>
+        <v>0.0855558046889394</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>547215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>533935</v>
+        <v>532394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>557962</v>
+        <v>556890</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.936785567147486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9140520743306031</v>
+        <v>0.9114134460155199</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9551829107891338</v>
+        <v>0.953348921265849</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>819</v>
@@ -836,19 +836,19 @@
         <v>852480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>835556</v>
+        <v>835536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>868110</v>
+        <v>867468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9242644533895092</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9059162233809022</v>
+        <v>0.9058942236624044</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9412109386571827</v>
+        <v>0.9405146969072337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1358</v>
@@ -857,19 +857,19 @@
         <v>1399694</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1376779</v>
+        <v>1377586</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1417941</v>
+        <v>1419908</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9291195643212591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9139082959687818</v>
+        <v>0.9144441953110607</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9412313436021154</v>
+        <v>0.9425370329588979</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>25500</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16726</v>
+        <v>16393</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39059</v>
+        <v>37899</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02365689767623676</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01551757386121991</v>
+        <v>0.0152084716706687</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03623632767351546</v>
+        <v>0.03515980761673763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -982,19 +982,19 @@
         <v>37535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26524</v>
+        <v>26988</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51417</v>
+        <v>50420</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03549324370642155</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02508046989252845</v>
+        <v>0.02551997766316167</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04861951635785385</v>
+        <v>0.04767696174365467</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -1003,19 +1003,19 @@
         <v>63035</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49877</v>
+        <v>48986</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81046</v>
+        <v>79799</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02951865564180225</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02335674542225374</v>
+        <v>0.02293955820367149</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03795307953146946</v>
+        <v>0.03736892749518001</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1052394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1038835</v>
+        <v>1039995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1061168</v>
+        <v>1061501</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9763431023237632</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9637636723264845</v>
+        <v>0.9648401923832621</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9844824261387801</v>
+        <v>0.9847915283293306</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>992</v>
@@ -1053,19 +1053,19 @@
         <v>1020003</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1006121</v>
+        <v>1007118</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1031014</v>
+        <v>1030550</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9645067562935784</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9513804836421463</v>
+        <v>0.9523230382563453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9749195301074718</v>
+        <v>0.9744800223368383</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2023</v>
@@ -1074,19 +1074,19 @@
         <v>2072397</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2054386</v>
+        <v>2055633</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2085555</v>
+        <v>2086446</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9704813443581978</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9620469204685305</v>
+        <v>0.9626310725048199</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9766432545777463</v>
+        <v>0.9770604417963286</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22012</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14242</v>
+        <v>14780</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33051</v>
+        <v>33760</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01962540342143576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01269782173476335</v>
+        <v>0.01317798613011164</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02946801118444463</v>
+        <v>0.03010006068520184</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1199,19 +1199,19 @@
         <v>35651</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25477</v>
+        <v>25657</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48233</v>
+        <v>50151</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03586868657141205</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02563255048080377</v>
+        <v>0.02581300955297618</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04852732362092942</v>
+        <v>0.05045686713405952</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1220,19 +1220,19 @@
         <v>57663</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45282</v>
+        <v>42658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74896</v>
+        <v>74329</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02725697225764726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02140449178534858</v>
+        <v>0.02016398373743677</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03540296894365185</v>
+        <v>0.03513499179902758</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1099582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1088543</v>
+        <v>1087834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1107352</v>
+        <v>1106814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9803745965785643</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9705319888155547</v>
+        <v>0.9698999393147979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9873021782652367</v>
+        <v>0.9868220138698883</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>948</v>
@@ -1270,19 +1270,19 @@
         <v>958289</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>945707</v>
+        <v>943789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>968463</v>
+        <v>968283</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9641313134285879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.951472676379071</v>
+        <v>0.9495431328659402</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9743674495191963</v>
+        <v>0.9741869904470237</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2029</v>
@@ -1291,19 +1291,19 @@
         <v>2057871</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2040638</v>
+        <v>2041205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2070252</v>
+        <v>2072876</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9727430277423528</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9645970310563481</v>
+        <v>0.964865008200972</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9785955082146514</v>
+        <v>0.979836016262563</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>12904</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6694</v>
+        <v>6333</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21743</v>
+        <v>22095</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02885610409880978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01496966154303308</v>
+        <v>0.0141604252842009</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04862050510303439</v>
+        <v>0.04940714994630546</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12834</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6738</v>
+        <v>6657</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21850</v>
+        <v>21507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03761752949805734</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01975027809833159</v>
+        <v>0.01951150028981754</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0640476488989335</v>
+        <v>0.06304170926312136</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1437,19 +1437,19 @@
         <v>25738</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16562</v>
+        <v>17138</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36556</v>
+        <v>39110</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03264756994864503</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02100792448152488</v>
+        <v>0.02173857177457319</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04637036180202593</v>
+        <v>0.04960907468022877</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>434296</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>425457</v>
+        <v>425105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>440506</v>
+        <v>440867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9711438959011902</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9513794948969657</v>
+        <v>0.9505928500536949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985030338456967</v>
+        <v>0.9858395747157992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -1487,19 +1487,19 @@
         <v>328324</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319308</v>
+        <v>319651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334420</v>
+        <v>334501</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9623824705019427</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9359523511010662</v>
+        <v>0.9369582907368785</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9802497219016685</v>
+        <v>0.9804884997101825</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>751</v>
@@ -1508,19 +1508,19 @@
         <v>762620</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>751802</v>
+        <v>749248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>771796</v>
+        <v>771220</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.967352430051355</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9536296381979739</v>
+        <v>0.9503909253197712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9789920755184749</v>
+        <v>0.9782614282254267</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>97342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78691</v>
+        <v>79058</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117643</v>
+        <v>119559</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03012909841213418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02435629031860547</v>
+        <v>0.02446973578920969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03641278228927766</v>
+        <v>0.03700571593387798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -1633,19 +1633,19 @@
         <v>155874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132014</v>
+        <v>131435</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180220</v>
+        <v>180929</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04702116334967813</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03982368334827233</v>
+        <v>0.03964882068922346</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05436548334181978</v>
+        <v>0.05457954372427065</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>241</v>
@@ -1654,19 +1654,19 @@
         <v>253216</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>223376</v>
+        <v>223518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>287167</v>
+        <v>288046</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03868369597125082</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03412506206942692</v>
+        <v>0.03414673720017442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04387039687340176</v>
+        <v>0.04400472095489219</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3133487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3113186</v>
+        <v>3111270</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3152138</v>
+        <v>3151771</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9698709015878658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9635872177107221</v>
+        <v>0.962994284066122</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9756437096813945</v>
+        <v>0.9755302642107903</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3086</v>
@@ -1704,19 +1704,19 @@
         <v>3159095</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3134749</v>
+        <v>3134040</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3182955</v>
+        <v>3183534</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9529788366503219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9456345166581801</v>
+        <v>0.9454204562757293</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9601763166517275</v>
+        <v>0.9603511793107765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6161</v>
@@ -1725,19 +1725,19 @@
         <v>6292582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6258631</v>
+        <v>6257752</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6322422</v>
+        <v>6322280</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9613163040287491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9561296031265983</v>
+        <v>0.9559952790451078</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9658749379305732</v>
+        <v>0.9658532627998256</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>70200</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51719</v>
+        <v>55129</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87055</v>
+        <v>90691</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06737340375396622</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04963643560426648</v>
+        <v>0.05290915070213317</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08354951490169391</v>
+        <v>0.087039306073598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>150</v>
@@ -2090,19 +2090,19 @@
         <v>162839</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137992</v>
+        <v>139610</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>186976</v>
+        <v>189737</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1455339682986402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1233268324973991</v>
+        <v>0.1247730658785613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1671059608708007</v>
+        <v>0.1695732432957743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>214</v>
@@ -2111,19 +2111,19 @@
         <v>233039</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>204995</v>
+        <v>203475</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>263934</v>
+        <v>262606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1078453910438798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09486711945117347</v>
+        <v>0.09416348392008207</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1221427797804472</v>
+        <v>0.1215281580285653</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>971757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>954902</v>
+        <v>951266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>990238</v>
+        <v>986828</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9326265962460337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9164504850983062</v>
+        <v>0.9129606939264017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9503635643957336</v>
+        <v>0.9470908492978668</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>880</v>
@@ -2161,19 +2161,19 @@
         <v>956070</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>931933</v>
+        <v>929172</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>980917</v>
+        <v>979299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8544660317013598</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8328940391291993</v>
+        <v>0.8304267567042258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.876673167502601</v>
+        <v>0.8752269341214387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1792</v>
@@ -2182,19 +2182,19 @@
         <v>1927827</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1896932</v>
+        <v>1898260</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1955871</v>
+        <v>1957391</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8921546089561202</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8778572202195527</v>
+        <v>0.8784718419714347</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9051328805488265</v>
+        <v>0.9058365160799179</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>39914</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28478</v>
+        <v>27892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56668</v>
+        <v>56345</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04085035253586596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02914645382690572</v>
+        <v>0.02854660045920623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05799767186702127</v>
+        <v>0.05766668019913102</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -2307,19 +2307,19 @@
         <v>96673</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77511</v>
+        <v>79017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117391</v>
+        <v>116468</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08843444276784838</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0709047253958722</v>
+        <v>0.07228274127987548</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1073866779976628</v>
+        <v>0.1065419263828853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -2328,19 +2328,19 @@
         <v>136587</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113427</v>
+        <v>113443</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164010</v>
+        <v>161737</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06597657206249177</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05478914144876647</v>
+        <v>0.05479725078152507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.079222617528648</v>
+        <v>0.07812510187109752</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>937159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>920405</v>
+        <v>920728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>948595</v>
+        <v>949181</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.959149647464134</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9420023281329788</v>
+        <v>0.9423333198008691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9708535461730943</v>
+        <v>0.9714533995407938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>929</v>
@@ -2378,19 +2378,19 @@
         <v>996492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>975774</v>
+        <v>976697</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1015654</v>
+        <v>1014148</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9115655572321516</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8926133220023371</v>
+        <v>0.8934580736171147</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9290952746041277</v>
+        <v>0.9277172587201243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1818</v>
@@ -2399,19 +2399,19 @@
         <v>1933650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1906227</v>
+        <v>1908500</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1956810</v>
+        <v>1956794</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9340234279375083</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.920777382471352</v>
+        <v>0.9218748981289027</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9452108585512337</v>
+        <v>0.945202749218475</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>31798</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22114</v>
+        <v>21503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45224</v>
+        <v>45965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03592504395143937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02498384251271671</v>
+        <v>0.02429347587491651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05109411613763845</v>
+        <v>0.05193123308838245</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -2524,19 +2524,19 @@
         <v>41592</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30434</v>
+        <v>29985</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56055</v>
+        <v>56467</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04754158829638828</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03478718616497632</v>
+        <v>0.03427395562663704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06407251324948879</v>
+        <v>0.06454358003711733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -2545,19 +2545,19 @@
         <v>73390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57167</v>
+        <v>58349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91166</v>
+        <v>93198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04169947424554001</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03248143819611293</v>
+        <v>0.03315311383513723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05179932866325208</v>
+        <v>0.05295427555363821</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>853317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>839891</v>
+        <v>839150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>863001</v>
+        <v>863612</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9640749560485606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9489058838623614</v>
+        <v>0.9480687669116175</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9750161574872833</v>
+        <v>0.9757065241250834</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>782</v>
@@ -2595,19 +2595,19 @@
         <v>833269</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>818806</v>
+        <v>818394</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>844427</v>
+        <v>844876</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9524584117036117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9359274867505112</v>
+        <v>0.9354564199628829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9652128138350237</v>
+        <v>0.965726044373363</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1582</v>
@@ -2616,19 +2616,19 @@
         <v>1686586</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1668810</v>
+        <v>1666778</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1702809</v>
+        <v>1701627</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.95830052575446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9482006713367479</v>
+        <v>0.9470457244463627</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9675185618038871</v>
+        <v>0.9668468861648628</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>17029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10267</v>
+        <v>9993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26801</v>
+        <v>26356</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03391804482888986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02045085140433866</v>
+        <v>0.01990444427688139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05338188090665089</v>
+        <v>0.05249588910529722</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -2741,19 +2741,19 @@
         <v>28354</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18898</v>
+        <v>19141</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40706</v>
+        <v>39306</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0626284214385923</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04174251596561225</v>
+        <v>0.04227958983022596</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08991213797262057</v>
+        <v>0.08681831561600568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -2762,19 +2762,19 @@
         <v>45383</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34307</v>
+        <v>34234</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61644</v>
+        <v>60800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04753168742619001</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03593119276364126</v>
+        <v>0.0358546639825849</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06456312189505237</v>
+        <v>0.0636792179372026</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>485028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>475256</v>
+        <v>475701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491790</v>
+        <v>492064</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9660819551711102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9466181190933491</v>
+        <v>0.9475041108947029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9795491485956612</v>
+        <v>0.9800955557231187</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>386</v>
@@ -2812,19 +2812,19 @@
         <v>424382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>412030</v>
+        <v>413430</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>433838</v>
+        <v>433595</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9373715785614077</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9100878620273795</v>
+        <v>0.9131816843839943</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9582574840343877</v>
+        <v>0.9577204101697741</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>829</v>
@@ -2833,19 +2833,19 @@
         <v>909410</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>893149</v>
+        <v>893993</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>920486</v>
+        <v>920559</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.95246831257381</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9354368781049476</v>
+        <v>0.9363207820627975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9640688072363588</v>
+        <v>0.9641453360174151</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>158941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134611</v>
+        <v>135451</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189201</v>
+        <v>189787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04666210600589835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03951936914044513</v>
+        <v>0.03976611324709761</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05554587670371644</v>
+        <v>0.05571806935741565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>304</v>
@@ -2958,19 +2958,19 @@
         <v>329459</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>294847</v>
+        <v>293779</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>362577</v>
+        <v>367936</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09307620998808781</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08329799576353925</v>
+        <v>0.08299624716040618</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1024325629287775</v>
+        <v>0.1039464638292572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>450</v>
@@ -2979,19 +2979,19 @@
         <v>488400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>445413</v>
+        <v>446370</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>531587</v>
+        <v>534612</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07031508842517305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0641263177833598</v>
+        <v>0.06426403538749779</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07653274622436143</v>
+        <v>0.07696834235561202</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3247262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3217002</v>
+        <v>3216416</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3271592</v>
+        <v>3270752</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9533378939941016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9444541232962835</v>
+        <v>0.9442819306425843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9604806308595546</v>
+        <v>0.9602338867529023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2977</v>
@@ -3029,19 +3029,19 @@
         <v>3210211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3177093</v>
+        <v>3171734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3244823</v>
+        <v>3245891</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9069237900119121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8975674370712226</v>
+        <v>0.896053536170743</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9167020042364608</v>
+        <v>0.9170037528395938</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6021</v>
@@ -3050,19 +3050,19 @@
         <v>6457472</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6414285</v>
+        <v>6411260</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6500459</v>
+        <v>6499502</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9296849115748269</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9234672537756387</v>
+        <v>0.923031657644388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9358736822166404</v>
+        <v>0.9357359646125022</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>64716</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50527</v>
+        <v>49393</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82382</v>
+        <v>81721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05737290582699801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04479356739267255</v>
+        <v>0.04378866761413778</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07303432222349061</v>
+        <v>0.0724483033216483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -3415,19 +3415,19 @@
         <v>100954</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81231</v>
+        <v>83506</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121959</v>
+        <v>121042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08026086380275695</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06458014463220149</v>
+        <v>0.06638929600873603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09696024072814513</v>
+        <v>0.09623099325579543</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>153</v>
@@ -3436,19 +3436,19 @@
         <v>165671</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141434</v>
+        <v>141384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192450</v>
+        <v>192028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06943964296561733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05928074282146837</v>
+        <v>0.05926001616474553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08066376008457926</v>
+        <v>0.0804868774659723</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1063281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1045615</v>
+        <v>1046276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1077470</v>
+        <v>1078604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9426270941730019</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9269656777765095</v>
+        <v>0.9275516966783516</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9552064326073276</v>
+        <v>0.9562113323858622</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1095</v>
@@ -3486,19 +3486,19 @@
         <v>1156875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1135870</v>
+        <v>1136787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1176598</v>
+        <v>1174323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.919739136197243</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9030397592718549</v>
+        <v>0.9037690067442048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9354198553677985</v>
+        <v>0.9336107039912644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2099</v>
@@ -3507,19 +3507,19 @@
         <v>2220155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2193376</v>
+        <v>2193798</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2244392</v>
+        <v>2244442</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9305603570343827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9193362399154201</v>
+        <v>0.9195131225340276</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9407192571785316</v>
+        <v>0.940739983835254</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>17892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10452</v>
+        <v>10994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27926</v>
+        <v>27861</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01970811499479906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01151318469228743</v>
+        <v>0.01211020609620754</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03076051270104473</v>
+        <v>0.03068897589073963</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -3632,19 +3632,19 @@
         <v>48958</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36597</v>
+        <v>35795</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65536</v>
+        <v>64499</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0487558146075437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03644545149579485</v>
+        <v>0.03564717853918149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06526521575712503</v>
+        <v>0.06423288420502371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -3653,19 +3653,19 @@
         <v>66850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50861</v>
+        <v>51823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85125</v>
+        <v>85788</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0349634560980379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02660076805181978</v>
+        <v>0.02710407232024078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04452130799043531</v>
+        <v>0.04486814596344016</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>889960</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>879926</v>
+        <v>879991</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>897400</v>
+        <v>896858</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9802918850052009</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9692394872989553</v>
+        <v>0.9693110241092604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9884868153077125</v>
+        <v>0.9878897939037925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>906</v>
@@ -3703,19 +3703,19 @@
         <v>955192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>938614</v>
+        <v>939651</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>967553</v>
+        <v>968355</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9512441853924563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.934734784242875</v>
+        <v>0.9357671157949764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9635545485042052</v>
+        <v>0.9643528214608186</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1768</v>
@@ -3724,19 +3724,19 @@
         <v>1845152</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1826877</v>
+        <v>1826214</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1861141</v>
+        <v>1860179</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9650365439019621</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9554786920095647</v>
+        <v>0.9551318540365599</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9733992319481801</v>
+        <v>0.9728959276797592</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>18729</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11324</v>
+        <v>11114</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29234</v>
+        <v>28973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02273643952657683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01374687572807673</v>
+        <v>0.01349129067490887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03548894751362836</v>
+        <v>0.03517132602899531</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3849,19 +3849,19 @@
         <v>27135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17725</v>
+        <v>16743</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40768</v>
+        <v>39830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03519239958594472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02298813556098898</v>
+        <v>0.0217137218061821</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05287311079668643</v>
+        <v>0.05165649606685127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -3870,19 +3870,19 @@
         <v>45865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31843</v>
+        <v>32790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62148</v>
+        <v>62690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02875861659555923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0199663422467834</v>
+        <v>0.02056041474697442</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03896847074145732</v>
+        <v>0.03930835840264459</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>805030</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>794525</v>
+        <v>794786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>812435</v>
+        <v>812645</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9772635604734232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9645110524863717</v>
+        <v>0.9648286739710042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9862531242719235</v>
+        <v>0.9865087093250912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>706</v>
@@ -3920,19 +3920,19 @@
         <v>743924</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>730291</v>
+        <v>731229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>753334</v>
+        <v>754316</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9648076004140553</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9471268892033137</v>
+        <v>0.9483435039331488</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.977011864439011</v>
+        <v>0.978286278193818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1476</v>
@@ -3941,19 +3941,19 @@
         <v>1548953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1532670</v>
+        <v>1532128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1562975</v>
+        <v>1562028</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9712413834044408</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9610315292585425</v>
+        <v>0.9606916415973554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9800336577532166</v>
+        <v>0.9794395852530253</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>13399</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7021</v>
+        <v>7665</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22777</v>
+        <v>23912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02644328110031456</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01385727379719391</v>
+        <v>0.01512782232741295</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04495149763309246</v>
+        <v>0.04719223606190262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -4066,19 +4066,19 @@
         <v>17501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10405</v>
+        <v>10068</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27976</v>
+        <v>28488</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03581072279012143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02129027740204168</v>
+        <v>0.02060112746044406</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0572441130386122</v>
+        <v>0.05829215051538803</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -4087,19 +4087,19 @@
         <v>30900</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21256</v>
+        <v>20721</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44908</v>
+        <v>44638</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03104238039124736</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02135387638289438</v>
+        <v>0.02081595468165924</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0451143688666055</v>
+        <v>0.04484346534668025</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>493302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>483924</v>
+        <v>482789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>499680</v>
+        <v>499036</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9735567188996854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9550485023669065</v>
+        <v>0.9528077639380973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9861427262028053</v>
+        <v>0.9848721776725871</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>439</v>
@@ -4137,19 +4137,19 @@
         <v>471216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>460741</v>
+        <v>460229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478312</v>
+        <v>478649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9641892772098786</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.942755886961388</v>
+        <v>0.9417078494846119</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9787097225979584</v>
+        <v>0.9793988725395563</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>898</v>
@@ -4158,19 +4158,19 @@
         <v>964517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>950509</v>
+        <v>950779</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>974161</v>
+        <v>974696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9689576196087526</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9548856311333945</v>
+        <v>0.9551565346533197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9786461236171056</v>
+        <v>0.9791840453183407</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>114737</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94988</v>
+        <v>96747</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>138206</v>
+        <v>139515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03408382914078036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02821710997754026</v>
+        <v>0.0287397130302158</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04105576730194282</v>
+        <v>0.041444372957734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>171</v>
@@ -4283,19 +4283,19 @@
         <v>194549</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>171279</v>
+        <v>163879</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>228021</v>
+        <v>224104</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0552421548457229</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04863447123742745</v>
+        <v>0.04653339618337424</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06474646977133844</v>
+        <v>0.06363406877124793</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>280</v>
@@ -4304,19 +4304,19 @@
         <v>309286</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>275738</v>
+        <v>275448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>350889</v>
+        <v>348055</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04490173439422132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04003129994981421</v>
+        <v>0.03998914318397341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05094152909445799</v>
+        <v>0.05053020595577659</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3251573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3228104</v>
+        <v>3226795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3271322</v>
+        <v>3269563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9659161708592197</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9589442326980567</v>
+        <v>0.9585556270422658</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9717828900224598</v>
+        <v>0.9712602869697842</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3146</v>
@@ -4354,19 +4354,19 @@
         <v>3327205</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3293733</v>
+        <v>3297650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3350475</v>
+        <v>3357875</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9447578451542771</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9352535302286613</v>
+        <v>0.9363659312287521</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9513655287625726</v>
+        <v>0.9534666038166256</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6241</v>
@@ -4375,19 +4375,19 @@
         <v>6578778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6537175</v>
+        <v>6540009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6612326</v>
+        <v>6612616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9550982656057787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.949058470905542</v>
+        <v>0.9494697940442237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9599687000501858</v>
+        <v>0.9600108568160269</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>56796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43528</v>
+        <v>42646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71321</v>
+        <v>72488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1140921169038937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08743922568771402</v>
+        <v>0.08566727490617496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1432709904685371</v>
+        <v>0.1456157032751074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -4740,19 +4740,19 @@
         <v>90541</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77900</v>
+        <v>76526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107098</v>
+        <v>105797</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1455506626503305</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1252291311806065</v>
+        <v>0.1230207747172132</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.172166312056703</v>
+        <v>0.1700744943959337</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -4761,19 +4761,19 @@
         <v>147337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>126558</v>
+        <v>126676</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>166345</v>
+        <v>168696</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.131566641983793</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1130117144790883</v>
+        <v>0.1131170283830725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1485401799787337</v>
+        <v>0.1506391779835961</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>441009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426484</v>
+        <v>425317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>454277</v>
+        <v>455159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8859078830961064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8567290095314629</v>
+        <v>0.8543842967248919</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9125607743122859</v>
+        <v>0.9143327250938251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>713</v>
@@ -4811,19 +4811,19 @@
         <v>531520</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>514963</v>
+        <v>516264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>544161</v>
+        <v>545535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8544493373496697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.827833687943297</v>
+        <v>0.8299255056040664</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8747708688193935</v>
+        <v>0.8769792252827869</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1104</v>
@@ -4832,19 +4832,19 @@
         <v>972529</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>953521</v>
+        <v>951170</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>993308</v>
+        <v>993190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.868433358016207</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8514598200212661</v>
+        <v>0.8493608220164041</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8869882855209116</v>
+        <v>0.8868829716169273</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>47257</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35297</v>
+        <v>35741</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62553</v>
+        <v>62996</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04926954635115818</v>
+        <v>0.04926954635115819</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03680054661343968</v>
+        <v>0.03726318010930755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06521767758014177</v>
+        <v>0.06567892917652227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -4957,19 +4957,19 @@
         <v>86848</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73444</v>
+        <v>74148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100949</v>
+        <v>102333</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07800033256291915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0659625504140311</v>
+        <v>0.06659458924648336</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09066508424109927</v>
+        <v>0.09190795726893178</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -4978,19 +4978,19 @@
         <v>134104</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115985</v>
+        <v>115541</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>156267</v>
+        <v>154934</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06470427431165068</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05596202230627492</v>
+        <v>0.05574762336691706</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07539764835162897</v>
+        <v>0.07475428077393781</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>911890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896594</v>
+        <v>896151</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>923850</v>
+        <v>923406</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9507304536488419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9347823224198583</v>
+        <v>0.9343210708234777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9631994533865604</v>
+        <v>0.9627368198906926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1450</v>
@@ -5028,19 +5028,19 @@
         <v>1026578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012477</v>
+        <v>1011093</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1039982</v>
+        <v>1039278</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9219996674370809</v>
+        <v>0.9219996674370808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9093349157589007</v>
+        <v>0.9080920427310682</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.934037449585969</v>
+        <v>0.9334054107535166</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2300</v>
@@ -5049,19 +5049,19 @@
         <v>1938469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1916306</v>
+        <v>1917639</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1956588</v>
+        <v>1957032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9352957256883493</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9246023516483707</v>
+        <v>0.9252457192260622</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9440379776937251</v>
+        <v>0.9442523766330829</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>30527</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21001</v>
+        <v>20887</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44523</v>
+        <v>43245</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02918938531490812</v>
+        <v>0.02918938531490813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02008100261617723</v>
+        <v>0.01997172846341656</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04257229090718362</v>
+        <v>0.04135018069373637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -5174,19 +5174,19 @@
         <v>49987</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39635</v>
+        <v>38910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62814</v>
+        <v>61590</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04773545570900656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03785017490661943</v>
+        <v>0.03715747999026617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05998514197913211</v>
+        <v>0.05881583745269136</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -5195,19 +5195,19 @@
         <v>80513</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65892</v>
+        <v>66455</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97699</v>
+        <v>98168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0384684046792454</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03148252655694386</v>
+        <v>0.03175143782848965</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04667935116705769</v>
+        <v>0.0469037816154162</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1015285</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1001289</v>
+        <v>1002567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1024811</v>
+        <v>1024925</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9708106146850918</v>
+        <v>0.9708106146850919</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9574277090928166</v>
+        <v>0.9586498193062638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9799189973838229</v>
+        <v>0.9800282715365835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1433</v>
@@ -5245,19 +5245,19 @@
         <v>997175</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>984348</v>
+        <v>985572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1007527</v>
+        <v>1008252</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9522645442909934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9400148580208677</v>
+        <v>0.9411841625473085</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9621498250933804</v>
+        <v>0.962842520009734</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2426</v>
@@ -5266,19 +5266,19 @@
         <v>2012461</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1995275</v>
+        <v>1994806</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2027082</v>
+        <v>2026519</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9615315953207545</v>
+        <v>0.9615315953207546</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9533206488329422</v>
+        <v>0.9530962183845839</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9685174734430563</v>
+        <v>0.9682485621715103</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>45849</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32716</v>
+        <v>32646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62561</v>
+        <v>64980</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0469796653715998</v>
+        <v>0.04697966537159979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03352306039339491</v>
+        <v>0.03345077367957246</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06410431826559498</v>
+        <v>0.06658280100338233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -5391,19 +5391,19 @@
         <v>47818</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38119</v>
+        <v>37349</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60167</v>
+        <v>59573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05262531287857997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0419521265147493</v>
+        <v>0.04110370528499049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06621670723635759</v>
+        <v>0.06556313460813291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -5412,19 +5412,19 @@
         <v>93666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76624</v>
+        <v>78019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112518</v>
+        <v>113946</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04970170248037974</v>
+        <v>0.04970170248037973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04065879645313326</v>
+        <v>0.04139877780338701</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05970497414886229</v>
+        <v>0.06046245492667794</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>930080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>913368</v>
+        <v>910949</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>943213</v>
+        <v>943283</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9530203346284003</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9358956817344051</v>
+        <v>0.9334171989966179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9664769396066053</v>
+        <v>0.9665492263204277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1245</v>
@@ -5462,19 +5462,19 @@
         <v>860824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>848475</v>
+        <v>849069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>870523</v>
+        <v>871293</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9473746871214203</v>
+        <v>0.9473746871214199</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9337832927636426</v>
+        <v>0.9344368653918671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9580478734852508</v>
+        <v>0.9588962947150095</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2144</v>
@@ -5483,19 +5483,19 @@
         <v>1790905</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1772053</v>
+        <v>1770625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1807947</v>
+        <v>1806552</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9502982975196202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9402950258511377</v>
+        <v>0.9395375450733218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9593412035468658</v>
+        <v>0.9586012221966128</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>180428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156312</v>
+        <v>156142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>209090</v>
+        <v>209593</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0518665498085341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04493398835754148</v>
+        <v>0.04488529788151724</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0601059914278035</v>
+        <v>0.06025054833502338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>456</v>
@@ -5608,19 +5608,19 @@
         <v>275193</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>248082</v>
+        <v>250904</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>301205</v>
+        <v>301601</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07455204004507042</v>
+        <v>0.07455204004507043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06720734300485609</v>
+        <v>0.06797189098641795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08159886325243555</v>
+        <v>0.08170620086485252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>661</v>
@@ -5629,19 +5629,19 @@
         <v>455621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>421682</v>
+        <v>421939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>495014</v>
+        <v>492926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06354561958204623</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05881213942076798</v>
+        <v>0.05884798759895624</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06903977445518628</v>
+        <v>0.06874850288908278</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3298265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3269603</v>
+        <v>3269100</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3322381</v>
+        <v>3322551</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9481334501914659</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9398940085721965</v>
+        <v>0.9397494516649767</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9550660116424586</v>
+        <v>0.9551147021184826</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4841</v>
@@ -5679,19 +5679,19 @@
         <v>3416098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3390086</v>
+        <v>3389690</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3443209</v>
+        <v>3440387</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9254479599549296</v>
+        <v>0.9254479599549297</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9184011367475642</v>
+        <v>0.9182937991351477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9327926569951438</v>
+        <v>0.9320281090135821</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7974</v>
@@ -5700,19 +5700,19 @@
         <v>6714364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6674971</v>
+        <v>6677059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6748303</v>
+        <v>6748046</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9364543804179539</v>
+        <v>0.9364543804179537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9309602255448137</v>
+        <v>0.931251497110917</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9411878605792322</v>
+        <v>0.9411520124010437</v>
       </c>
     </row>
     <row r="18">
